--- a/results/Group1-Qualitative-Results.xlsx
+++ b/results/Group1-Qualitative-Results.xlsx
@@ -40,7 +40,7 @@
     <t>DateAndTime</t>
   </si>
   <si>
-    <t>G5-USER-1</t>
+    <t>G1-USER-1</t>
   </si>
   <si>
     <t>Some of the ones where I had to mark all nodes connected to one were impossible to accomplish in the brief window of time given.</t>
@@ -61,7 +61,7 @@
     <t>Thu Dec 03 2015 19:29:52 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-2</t>
+    <t>G1-USER-2</t>
   </si>
   <si>
     <t>The visualization froze several times (1-3 seconds each time), and for a couple rounds the mouse zoom did not work at all.</t>
@@ -76,7 +76,7 @@
     <t>Thu Dec 03 2015 17:35:14 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-3</t>
+    <t>G1-USER-3</t>
   </si>
   <si>
     <t>Thank you, very enjoyable, one had problems loading but everything worked well.</t>
@@ -94,7 +94,7 @@
     <t>Thu Dec 03 2015 20:43:11 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G5-USER-4</t>
+    <t>G1-USER-4</t>
   </si>
   <si>
     <t>no</t>
@@ -112,7 +112,7 @@
     <t>Thu Dec 03 2015 20:48:48 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-5</t>
+    <t>G1-USER-5</t>
   </si>
   <si>
     <t>npne</t>
@@ -127,7 +127,7 @@
     <t>Thu Dec 03 2015 18:25:21 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-6</t>
+    <t>G1-USER-6</t>
   </si>
   <si>
     <t>0.9,0.0,0.8</t>
@@ -139,7 +139,7 @@
     <t>Fri Dec 04 2015 03:55:50 GMT 0100 (Romance Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-7</t>
+    <t>G1-USER-7</t>
   </si>
   <si>
     <t>The second set of questions was the most challenging due to having to make more clicks than the others.</t>
@@ -154,7 +154,7 @@
     <t>Thu Dec 03 2015 21:58:09 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-8</t>
+    <t>G1-USER-8</t>
   </si>
   <si>
     <t>The time limits and the small images made it extra challenging.</t>
@@ -169,7 +169,7 @@
     <t>Thu Dec 03 2015 20:00:45 GMT-0700 (US Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-9</t>
+    <t>G1-USER-9</t>
   </si>
   <si>
     <t>no feedback</t>
@@ -184,7 +184,7 @@
     <t>Fri Dec 04 2015 14:44:22 GMT 0300 (Russia TZ 2 Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-10</t>
+    <t>G1-USER-10</t>
   </si>
   <si>
     <t>Great study! I hope to take part in more in the future. Thanks a lot in advance.</t>
@@ -199,7 +199,7 @@
     <t>Fri Dec 04 2015 13:48:54 GMT 0100 (Central Europe Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-11</t>
+    <t>G1-USER-11</t>
   </si>
   <si>
     <t>N/A</t>
@@ -214,7 +214,7 @@
     <t>Fri Dec 04 2015 14:36:11 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-12</t>
+    <t>G1-USER-12</t>
   </si>
   <si>
     <t>Sometimes if I accidentally unselected something by single-clicking after I doubled-clicked it, I was unable to reselect it even if I needed to select it as an answer.</t>
@@ -229,7 +229,7 @@
     <t>Fri Dec 04 2015 12:41:36 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-13</t>
+    <t>G1-USER-13</t>
   </si>
   <si>
     <t>I'm working on a Mac laptop and the instructions on how to manipulate the map did not apply to me. As a result it was a bit tricky figuring out how to work the map.</t>
@@ -247,7 +247,7 @@
     <t>Fri Dec 04 2015 14:41:56 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G5-USER-14</t>
+    <t>G1-USER-14</t>
   </si>
   <si>
     <t>none, interesting survey thanks.</t>
@@ -262,7 +262,7 @@
     <t>Fri Dec 04 2015 14:43:58 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-15</t>
+    <t>G1-USER-15</t>
   </si>
   <si>
     <t>Scrolling in and out was a pain. It would sometimes just scroll the window itself and not zoom. Clicking to find an open space to deselect things so I could zoom was not always so easy.</t>
@@ -280,7 +280,7 @@
     <t>Fri Dec 04 2015 14:46:35 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-16</t>
+    <t>G1-USER-16</t>
   </si>
   <si>
     <t>interesting study</t>
@@ -295,7 +295,7 @@
     <t>Fri Dec 04 2015 13:50:46 GMT-0600 (Central America Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-17</t>
+    <t>G1-USER-17</t>
   </si>
   <si>
     <t>No problems or comments.</t>
@@ -310,7 +310,7 @@
     <t>Fri Dec 04 2015 14:15:28 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-18</t>
+    <t>G1-USER-18</t>
   </si>
   <si>
     <t>Nope</t>
@@ -325,7 +325,7 @@
     <t>Fri Dec 04 2015 14:18:57 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-19</t>
+    <t>G1-USER-19</t>
   </si>
   <si>
     <t>n/a</t>
@@ -340,7 +340,7 @@
     <t>Fri Dec 04 2015 15:22:28 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-20</t>
+    <t>G1-USER-20</t>
   </si>
   <si>
     <t>This was actually a lot of fun.  I would totally do a study like this again.  Also, for some reason, it won't let me submit the study, but I completed the whole thing, and hopefully my Turk ID will show that.</t>
@@ -355,7 +355,7 @@
     <t>Fri Dec 04 2015 15:21:36 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-21</t>
+    <t>G1-USER-21</t>
   </si>
   <si>
     <t>Thanks</t>
@@ -370,7 +370,7 @@
     <t>Fri Dec 04 2015 14:24:57 GMT-0600 (Central Standard Time (Mexico))</t>
   </si>
   <si>
-    <t>G5-USER-22</t>
+    <t>G1-USER-22</t>
   </si>
   <si>
     <t>No.</t>
@@ -385,7 +385,7 @@
     <t>Fri Dec 04 2015 15:47:17 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-23</t>
+    <t>G1-USER-23</t>
   </si>
   <si>
     <t>The first question, I timed out, I apologize.</t>
@@ -400,7 +400,7 @@
     <t>Fri Dec 04 2015 15:34:48 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-24</t>
+    <t>G1-USER-24</t>
   </si>
   <si>
     <t>It was difficult to highlight nodes.</t>
@@ -415,7 +415,7 @@
     <t>Fri Dec 04 2015 13:49:29 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-25</t>
+    <t>G1-USER-25</t>
   </si>
   <si>
     <t>No, no problems.</t>
@@ -430,7 +430,7 @@
     <t>Fri Dec 04 2015 21:38:12 GMT-0500 (Hora est. PacÃ­fico, SudamÃ©rica)</t>
   </si>
   <si>
-    <t>G5-USER-26</t>
+    <t>G1-USER-26</t>
   </si>
   <si>
     <t>No, everything was fine.</t>
@@ -445,7 +445,7 @@
     <t>Fri Dec 04 2015 18:50:20 GMT-0800 (PST)</t>
   </si>
   <si>
-    <t>G5-USER-27</t>
+    <t>G1-USER-27</t>
   </si>
   <si>
     <t>Have a great time!</t>
@@ -460,7 +460,7 @@
     <t>Sat Dec 05 2015 06:12:00 GMT 0100 (Paris, Madrid)</t>
   </si>
   <si>
-    <t>G5-USER-28</t>
+    <t>G1-USER-28</t>
   </si>
   <si>
     <t>No issues, kind of fun</t>
@@ -475,7 +475,7 @@
     <t>Sat Dec 05 2015 01:28:46 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-29</t>
+    <t>G1-USER-29</t>
   </si>
   <si>
     <t>Nice task.</t>
@@ -490,7 +490,7 @@
     <t>Sat Dec 05 2015 06:22:41 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-30</t>
+    <t>G1-USER-30</t>
   </si>
   <si>
     <t>Interesting task</t>
@@ -505,7 +505,7 @@
     <t>Sat Dec 05 2015 04:44:49 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-31</t>
+    <t>G1-USER-31</t>
   </si>
   <si>
     <t>0.9,1.0,0.8300000000000001</t>
@@ -517,7 +517,7 @@
     <t>Sat Dec 05 2015 07:48:52 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-32</t>
+    <t>G1-USER-32</t>
   </si>
   <si>
     <t>None thanks.</t>
@@ -532,7 +532,7 @@
     <t>Sat Dec 05 2015 12:11:03 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-33</t>
+    <t>G1-USER-33</t>
   </si>
   <si>
     <t>No comments</t>
@@ -547,7 +547,7 @@
     <t>Sat Dec 05 2015 11:21:13 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-34</t>
+    <t>G1-USER-34</t>
   </si>
   <si>
     <t>Intersting survey...Thanks</t>
@@ -565,7 +565,7 @@
     <t>Sat Dec 05 2015 11:26:23 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-35</t>
+    <t>G1-USER-35</t>
   </si>
   <si>
     <t>no comments.</t>
@@ -580,7 +580,7 @@
     <t>Sat Dec 05 2015 12:17:30 GMT-0600 (CST)</t>
   </si>
   <si>
-    <t>G5-USER-36</t>
+    <t>G1-USER-36</t>
   </si>
   <si>
     <t>everything was good, fun study</t>
@@ -595,7 +595,7 @@
     <t>Sat Dec 05 2015 12:18:38 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-37</t>
+    <t>G1-USER-37</t>
   </si>
   <si>
     <t>No issues or comments.</t>
@@ -610,7 +610,7 @@
     <t>Sat Dec 05 2015 13:19:37 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-38</t>
+    <t>G1-USER-38</t>
   </si>
   <si>
     <t>Last set of instructions is kind of confusing</t>
@@ -625,7 +625,7 @@
     <t>Sat Dec 05 2015 13:28:17 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G5-USER-39</t>
+    <t>G1-USER-39</t>
   </si>
   <si>
     <t>I had no issues.</t>
@@ -643,7 +643,7 @@
     <t>Sat Dec 05 2015 12:29:39 GMT-0600 (Central America Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-40</t>
+    <t>G1-USER-40</t>
   </si>
   <si>
     <t>NO</t>
@@ -658,7 +658,7 @@
     <t>Sat Dec 05 2015 13:31:06 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-41</t>
+    <t>G1-USER-41</t>
   </si>
   <si>
     <t>Interesting, but time was a concern. I missed few what could have been done correctly provided enough time.</t>
@@ -673,7 +673,7 @@
     <t>Sat Dec 05 2015 13:29:07 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-42</t>
+    <t>G1-USER-42</t>
   </si>
   <si>
     <t>This was really interesting. I enjoyed participating!</t>
@@ -688,7 +688,7 @@
     <t>Sat Dec 05 2015 11:30:42 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-43</t>
+    <t>G1-USER-43</t>
   </si>
   <si>
     <t>interesting</t>
@@ -706,7 +706,7 @@
     <t>Sun Dec 06 2015 01:45:12 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-44</t>
+    <t>G1-USER-44</t>
   </si>
   <si>
     <t>nope</t>
@@ -721,7 +721,7 @@
     <t>Sat Dec 05 2015 23:22:21 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-45</t>
+    <t>G1-USER-45</t>
   </si>
   <si>
     <t>no comments</t>
@@ -739,7 +739,7 @@
     <t>Sat Dec 05 2015 23:33:12 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-46</t>
+    <t>G1-USER-46</t>
   </si>
   <si>
     <t>I found that navigation of the chart was more time consuming than finding the answer in the first two tests questions (what ingredients is this node connected too, and which node has more connections)</t>
@@ -754,7 +754,7 @@
     <t>Sun Dec 06 2015 04:55:12 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-47</t>
+    <t>G1-USER-47</t>
   </si>
   <si>
     <t>Had some trouble with the ingredient selection.</t>
@@ -769,7 +769,7 @@
     <t>Sun Dec 06 2015 04:07:20 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-48</t>
+    <t>G1-USER-48</t>
   </si>
   <si>
     <t>No</t>
@@ -781,7 +781,7 @@
     <t>Sun Dec 06 2015 13:33:05 GMT 0000 (GMT)</t>
   </si>
   <si>
-    <t>G5-USER-49</t>
+    <t>G1-USER-49</t>
   </si>
   <si>
     <t>A little hard to zoom in and out quickly enough. The time was little short on some questions.</t>
@@ -799,7 +799,7 @@
     <t>Sun Dec 06 2015 07:44:22 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-50</t>
+    <t>G1-USER-50</t>
   </si>
   <si>
     <t>Not at all.</t>
@@ -814,7 +814,7 @@
     <t>Sun Dec 06 2015 10:33:01 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-51</t>
+    <t>G1-USER-51</t>
   </si>
   <si>
     <t>thanks!</t>
@@ -829,7 +829,7 @@
     <t>Sun Dec 06 2015 08:35:07 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-52</t>
+    <t>G1-USER-52</t>
   </si>
   <si>
     <t>0.9333333333333332,1.0,0.9</t>
@@ -841,7 +841,7 @@
     <t>Sun Dec 06 2015 11:41:13 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-53</t>
+    <t>G1-USER-53</t>
   </si>
   <si>
     <t>fun study</t>
@@ -856,7 +856,7 @@
     <t>Sun Dec 06 2015 11:15:50 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-54</t>
+    <t>G1-USER-54</t>
   </si>
   <si>
     <t>Great and fun survey. Very different from other surveys posted on amazon turk!</t>
@@ -871,7 +871,7 @@
     <t>Sun Dec 06 2015 13:33:16 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-55</t>
+    <t>G1-USER-55</t>
   </si>
   <si>
     <t>A couple of the lines went through certain circles without actually being connected to them, and that was sort of confusing</t>
@@ -886,7 +886,7 @@
     <t>Wed Dec 02 2015 06:36:08 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-56</t>
+    <t>G1-USER-56</t>
   </si>
   <si>
     <t>It was hard doing the interconnection exercise in the time alotted</t>
@@ -898,7 +898,7 @@
     <t>Wed Dec 02 2015 06:37:05 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-57</t>
+    <t>G1-USER-57</t>
   </si>
   <si>
     <t>1.0,0.968888888888889,0.7</t>
@@ -910,7 +910,7 @@
     <t>Wed Dec 02 2015 12:30:58 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G5-USER-58</t>
+    <t>G1-USER-58</t>
   </si>
   <si>
     <t>1.0,0.9222222222222222,0.9</t>
@@ -922,7 +922,7 @@
     <t>Wed Dec 02 2015 11:39:14 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-59</t>
+    <t>G1-USER-59</t>
   </si>
   <si>
     <t>1.0,0.9277777777777778,0.9</t>
@@ -934,7 +934,7 @@
     <t>Wed Dec 02 2015 12:39:52 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-60</t>
+    <t>G1-USER-60</t>
   </si>
   <si>
     <t>none thank you, except now when I click submit it says please answer all questions</t>
@@ -946,7 +946,7 @@
     <t>Wed Dec 02 2015 15:22:02 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-61</t>
+    <t>G1-USER-61</t>
   </si>
   <si>
     <t>1.0,0.9111111111111111,0.8</t>
@@ -958,7 +958,7 @@
     <t>Wed Dec 02 2015 15:29:20 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-62</t>
+    <t>G1-USER-62</t>
   </si>
   <si>
     <t>Interesting. Thanks!I had no issues in study.</t>
@@ -973,7 +973,7 @@
     <t>Wed Dec 02 2015 16:32:15 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-63</t>
+    <t>G1-USER-63</t>
   </si>
   <si>
     <t>no.</t>
@@ -988,7 +988,7 @@
     <t>Wed Dec 02 2015 15:37:03 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-64</t>
+    <t>G1-USER-64</t>
   </si>
   <si>
     <t>0.0,0.0,0.0</t>
@@ -997,7 +997,7 @@
     <t>Wed Dec 02 2015 14:21:01 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-65</t>
+    <t>G1-USER-65</t>
   </si>
   <si>
     <t>8.3,19.7,3.8</t>
@@ -1006,7 +1006,7 @@
     <t>Wed Dec 02 2015 18:54:31 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-66</t>
+    <t>G1-USER-66</t>
   </si>
   <si>
     <t>It was fun</t>
@@ -1024,7 +1024,7 @@
     <t>Thu Dec 03 2015 19:47:09 GMT-0600 (CST)</t>
   </si>
   <si>
-    <t>G5-USER-67</t>
+    <t>G1-USER-67</t>
   </si>
   <si>
     <t>WAS A LITTLE TRICKY WORKING THIS WITH THE WAY IT MOVED AND STUFF. AND ALSO SEEMED TO BE VERY SENSITIVE WITH SELECTING THINGS I DIDN'T WANT TO SELECT AT TIMES.</t>
@@ -1039,7 +1039,7 @@
     <t>Thu Dec 03 2015 21:03:00 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-68</t>
+    <t>G1-USER-68</t>
   </si>
   <si>
     <t>I thought that the timer was too short and it made it very difficult to be accurate with the exercise.  I think that I did OK but please keep in mind that the timer and controls probably made some people respond quicker than they are accustomed to.  While I think that I responded accurately to both "easy" questions, I would also ask that you review the entire submission to see if a "good faith" effort was made by the participant - as a HIT rejection is a bad thing and impacts my ability to qualify for other work on Mturk.  Thanks for the opportunity to participate and good luck with your research!</t>
@@ -1054,7 +1054,7 @@
     <t>Thu Dec 03 2015 18:00:54 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-69</t>
+    <t>G1-USER-69</t>
   </si>
   <si>
     <t>No issues. Sorry I was a bit slow.</t>
@@ -1069,7 +1069,7 @@
     <t>Thu Dec 03 2015 21:08:10 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-70</t>
+    <t>G1-USER-70</t>
   </si>
   <si>
     <t>The first two tasks were difficult with the time issue.</t>
@@ -1087,7 +1087,7 @@
     <t>Thu Dec 03 2015 18:14:04 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-71</t>
+    <t>G1-USER-71</t>
   </si>
   <si>
     <t>I couldn't complete several of the questions in the alotted time.  I could have used a few extra seconds on most quesitons.</t>
@@ -1102,7 +1102,7 @@
     <t>Thu Dec 03 2015 20:29:57 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-72</t>
+    <t>G1-USER-72</t>
   </si>
   <si>
     <t>I had no issue with anything in the study. Everything worked perfectly. Except now this answer is broken.</t>
@@ -1117,7 +1117,7 @@
     <t>Fri Dec 04 2015 06:00:48 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-73</t>
+    <t>G1-USER-73</t>
   </si>
   <si>
     <t>No technical problems encountered. I almost never felt like I had enough time,by a long shot.</t>
@@ -1135,7 +1135,7 @@
     <t>Fri Dec 04 2015 06:19:40 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-74</t>
+    <t>G1-USER-74</t>
   </si>
   <si>
     <t>none</t>
@@ -1150,7 +1150,7 @@
     <t>Fri Dec 04 2015 06:22:30 GMT-0500 (Est)</t>
   </si>
   <si>
-    <t>G5-USER-75</t>
+    <t>G1-USER-75</t>
   </si>
   <si>
     <t>cool</t>
@@ -1165,7 +1165,7 @@
     <t>Fri Dec 04 2015 14:49:41 GMT-0500 (Est)</t>
   </si>
   <si>
-    <t>G5-USER-76</t>
+    <t>G1-USER-76</t>
   </si>
   <si>
     <t>platform was laggy, difficult to zoom. When the targeted area is near the bottom, it is difficult to zoom in and make selections.</t>
@@ -1180,7 +1180,7 @@
     <t>Fri Dec 04 2015 11:56:21 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-77</t>
+    <t>G1-USER-77</t>
   </si>
   <si>
     <t>yes</t>
@@ -1198,7 +1198,7 @@
     <t>Fri Dec 04 2015 14:56:05 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-78</t>
+    <t>G1-USER-78</t>
   </si>
   <si>
     <t>Timer seems really rushed</t>
@@ -1213,7 +1213,7 @@
     <t>Fri Dec 04 2015 13:01:45 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-79</t>
+    <t>G1-USER-79</t>
   </si>
   <si>
     <t>I don't feel enough time was given for the first section of questions</t>
@@ -1228,7 +1228,7 @@
     <t>Fri Dec 04 2015 14:07:03 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-80</t>
+    <t>G1-USER-80</t>
   </si>
   <si>
     <t>tedious</t>
@@ -1243,7 +1243,7 @@
     <t>Fri Dec 04 2015 21:19:36 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-81</t>
+    <t>G1-USER-81</t>
   </si>
   <si>
     <t>Nothing, thanks</t>
@@ -1258,7 +1258,7 @@
     <t>Fri Dec 04 2015 21:07:56 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-82</t>
+    <t>G1-USER-82</t>
   </si>
   <si>
     <t>I had no issues with it</t>
@@ -1273,7 +1273,7 @@
     <t>Sat Dec 05 2015 03:34:56 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-83</t>
+    <t>G1-USER-83</t>
   </si>
   <si>
     <t>I tried to do the best I could do with the timer as it was. It was fun, but I don't know that I could find them and click as quick as I needed to, but I tried my best!</t>
@@ -1288,7 +1288,7 @@
     <t>Sat Dec 05 2015 05:50:58 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-84</t>
+    <t>G1-USER-84</t>
   </si>
   <si>
     <t>I had trouble with selecting the ingredients connected. It took a few times for me to figure out I just had to mouse over the ingredients on the top row until I was over the black square. I was trying to highlight the square and then move up and select the ingredient. Once I figured it out it wasn't too hard. However, the pan feature does not work well. If the ingredient highlighted is near the bottom of the table, I wish I could highlight the connection and then scroll the table to select the top ingredient (if that makes sense). I think scroll would work well with this. I also think you should put in the instructions in this page that you can't copy/paste your ID into it or it won't let you submit. Thanks!</t>
@@ -1303,7 +1303,7 @@
     <t>Sat Dec 05 2015 09:58:29 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-85</t>
+    <t>G1-USER-85</t>
   </si>
   <si>
     <t>Fun study, thank you</t>
@@ -1318,7 +1318,7 @@
     <t>Sat Dec 05 2015 12:38:00 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-86</t>
+    <t>G1-USER-86</t>
   </si>
   <si>
     <t>0.7,0.7,0.5994444444444446</t>
@@ -1330,7 +1330,7 @@
     <t>Sat Dec 05 2015 11:59:13 GMT-0700 (US Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-87</t>
+    <t>G1-USER-87</t>
   </si>
   <si>
     <t>The interface was terrible, too small. The interface was terrible, too small. The interface was terrible, too small.The interface was terrible, too small</t>
@@ -1348,7 +1348,7 @@
     <t>Sat Dec 05 2015 13:35:50 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-88</t>
+    <t>G1-USER-88</t>
   </si>
   <si>
     <t>The timer was very quick and i feel like if i had more time I could have done better on the last task. It was hard to see the graph in general</t>
@@ -1366,7 +1366,7 @@
     <t>Sat Dec 05 2015 12:16:42 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-89</t>
+    <t>G1-USER-89</t>
   </si>
   <si>
     <t>I think that it would have been better if the first section of the study had directions on which part was coming up. The other 2 sections warned us that the study was changing, but I had to read the directions on the side before I was able to answer the first of thirty questions.</t>
@@ -1381,7 +1381,7 @@
     <t>Sat Dec 05 2015 15:54:53 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-90</t>
+    <t>G1-USER-90</t>
   </si>
   <si>
     <t>This is really hard on a laptop with a trackpad, I didn't get a lot of them because of the timer :( Please don't reject me, I swear I tried the best I could!</t>
@@ -1396,7 +1396,7 @@
     <t>Sun Dec 06 2015 00:33:39 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-91</t>
+    <t>G1-USER-91</t>
   </si>
   <si>
     <t>The zoom didn't work so well, so I sometimes couldn't select the right cell in time. :(</t>
@@ -1411,7 +1411,7 @@
     <t>Sun Dec 06 2015 16:18:26 GMT 0900 (Korea Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-92</t>
+    <t>G1-USER-92</t>
   </si>
   <si>
     <t>0.5333333333333334,1.0,0.9</t>
@@ -1423,7 +1423,7 @@
     <t>Sun Dec 06 2015 13:08:49 GMT 0545 (Nepal Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-93</t>
+    <t>G1-USER-93</t>
   </si>
   <si>
     <t>0.925,0.9,0.8</t>
@@ -1435,7 +1435,7 @@
     <t>Sun Dec 06 2015 06:12:30 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-94</t>
+    <t>G1-USER-94</t>
   </si>
   <si>
     <t>NONE</t>
@@ -1450,7 +1450,7 @@
     <t>Sun Dec 06 2015 08:07:26 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-95</t>
+    <t>G1-USER-95</t>
   </si>
   <si>
     <t>Put a zoom button on screen</t>
@@ -1465,7 +1465,7 @@
     <t>Sun Dec 06 2015 08:26:52 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-96</t>
+    <t>G1-USER-96</t>
   </si>
   <si>
     <t>smaller sections of data at a time would be much easier to analyze was extremely difficult to see the dots if zoomed out and impossible to click on data if zoomed in and there really wasn't the time to switch between the two</t>
@@ -1480,7 +1480,7 @@
     <t>Sun Dec 06 2015 08:54:10 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-97</t>
+    <t>G1-USER-97</t>
   </si>
   <si>
     <t>It was fun and challenging!</t>
@@ -1495,7 +1495,7 @@
     <t>Sun Dec 06 2015 11:41:19 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-98</t>
+    <t>G1-USER-98</t>
   </si>
   <si>
     <t>very interesting</t>
@@ -1510,7 +1510,7 @@
     <t>Sun Dec 06 2015 11:14:25 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-99</t>
+    <t>G1-USER-99</t>
   </si>
   <si>
     <t>0.6866666666666666,0.6,0.8</t>
@@ -1522,7 +1522,7 @@
     <t>Sun Dec 06 2015 11:00:24 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-100</t>
+    <t>G1-USER-100</t>
   </si>
   <si>
     <t>You really don't provide adequate definitions/explanations of what some of the terms in these studies mean, like 'interconnected'. Also, it's not fair to both have these be timed tasks *and* refuse to pay people who don't get certain questions right. Choose one or the other. Someone might get a 'simple' question wrong because they find using the interface confusing, or misclicked and didn't have time to fix their mistake before the countdown ran out. People shouldn't get HITs rejected simply for not being fast and efficient at using this new system you just introduced to them.</t>
@@ -1540,7 +1540,7 @@
     <t>Wed Dec 09 2015 00:25:55 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-101</t>
+    <t>G1-USER-101</t>
   </si>
   <si>
     <t>would be nicer to make pan, zoom easier and provide a wider area to zoom into</t>
@@ -1555,7 +1555,7 @@
     <t>Wed Dec 09 2015 11:19:58 GMT 0000 (GMT Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-102</t>
+    <t>G1-USER-102</t>
   </si>
   <si>
     <t>1.0,0.836111111111111,0.8</t>
@@ -1567,7 +1567,7 @@
     <t>Wed Dec 09 2015 18:01:00 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-103</t>
+    <t>G1-USER-103</t>
   </si>
   <si>
     <t>this is not easy at all with a mouse that happens to be hyper-sensitive</t>
@@ -1582,7 +1582,7 @@
     <t>Wed Dec 02 2015 07:18:06 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-104</t>
+    <t>G1-USER-104</t>
   </si>
   <si>
     <t>it was tough to figure out interconnectedness... density is tough to judge...</t>
@@ -1597,7 +1597,7 @@
     <t>Wed Dec 02 2015 08:38:00 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G5-USER-105</t>
+    <t>G1-USER-105</t>
   </si>
   <si>
     <t>That was interesting... I would imagine those with great eyesight would be able to go faster! Thanks.</t>
@@ -1609,7 +1609,7 @@
     <t>Wed Dec 02 2015 12:02:27 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-106</t>
+    <t>G1-USER-106</t>
   </si>
   <si>
     <t>None.</t>
@@ -1624,7 +1624,7 @@
     <t>Wed Dec 02 2015 11:38:04 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-107</t>
+    <t>G1-USER-107</t>
   </si>
   <si>
     <t>no, though it was really small</t>
@@ -1639,7 +1639,7 @@
     <t>Wed Dec 02 2015 16:08:21 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-108</t>
+    <t>G1-USER-108</t>
   </si>
   <si>
     <t>0.5,0.9800000000000001,0.7</t>
@@ -1651,7 +1651,7 @@
     <t>Wed Dec 02 2015 16:14:30 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-109</t>
+    <t>G1-USER-109</t>
   </si>
   <si>
     <t>It was hard to do the bottom rows because of screen and box size.</t>
@@ -1666,7 +1666,7 @@
     <t>Wed Dec 02 2015 16:51:09 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-110</t>
+    <t>G1-USER-110</t>
   </si>
   <si>
     <t>no issues</t>
@@ -1681,7 +1681,7 @@
     <t>Wed Dec 02 2015 16:52:16 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-111</t>
+    <t>G1-USER-111</t>
   </si>
   <si>
     <t>0.7,0.7944444444444445,0.9</t>
@@ -1693,7 +1693,7 @@
     <t>Wed Dec 02 2015 16:19:40 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G5-USER-112</t>
+    <t>G1-USER-112</t>
   </si>
   <si>
     <t>IT WAS TOUGH</t>
